--- a/iselUssSyncV2/OutputWSL/20220517_1330_D60L474W90Q8.0U0.18H54.8G2_S_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220517_1330_D60L474W90Q8.0U0.18H54.8G2_S_DATA.xlsx
@@ -127,7 +127,7 @@
     <t>caseStr</t>
   </si>
   <si>
-    <t>1</t>
+    <t>kA</t>
   </si>
   <si>
     <t>Ftotal</t>
@@ -351,14 +351,16 @@
         <v>0.054115128674758713</v>
       </c>
       <c r="G2" s="0">
-        <v>0.058828809523809519</v>
-      </c>
-      <c r="H2" s="0"/>
+        <v>0.06512817460317466</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.0031281746031746565</v>
+      </c>
       <c r="I2" s="0">
         <v>0.024604505944805136</v>
       </c>
       <c r="J2" s="0">
-        <v>0.020006254980079682</v>
+        <v>0.0173096015936255</v>
       </c>
       <c r="K2" s="0">
         <v>0.002</v>
@@ -406,7 +408,7 @@
         <v>0.25683271859678081</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.71307280738826184</v>
+        <v>0.8860372214669745</v>
       </c>
       <c r="AA2" s="0">
         <v>0.19037858635138019</v>
@@ -426,21 +428,17 @@
       <c r="AF2" s="0">
         <v>2.4266975409188056</v>
       </c>
-      <c r="AG2" s="0">
-        <v>10.253224405790494</v>
-      </c>
+      <c r="AG2" s="0"/>
       <c r="AH2" s="0">
         <v>5.4730714406350023</v>
       </c>
       <c r="AI2" s="0">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="AJ2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="0">
-        <v>12.6799219467093</v>
-      </c>
+      <c r="AK2" s="0"/>
     </row>
   </sheetData>
 </worksheet>
